--- a/OOXML/test/ExampleFiles/xlsb2xlsx/simple2.xlsx
+++ b/OOXML/test/ExampleFiles/xlsb2xlsx/simple2.xlsx
@@ -17,7 +17,7 @@
     <pivotCache cacheId="0" r:id="rId3"/>
   </pivotCaches>
   <extLst>
-    <ext uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{46BE6895-7355-4a93-B00E-2C351335B9C9}">
       <x15:slicerCaches>
         <x14:slicerCache r:id="rId4"/>
       </x15:slicerCaches>

--- a/OOXML/test/ExampleFiles/xlsb2xlsx/simple2.xlsx
+++ b/OOXML/test/ExampleFiles/xlsb2xlsx/simple2.xlsx
@@ -557,7 +557,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView windowProtection="0" showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" showWhiteSpace="0" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" workbookViewId="0">
+    <sheetView windowProtection="0" showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="0" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" showWhiteSpace="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
@@ -604,7 +604,7 @@
     <pageSetUpPr autoPageBreaks="1" fitToPage="0"/>
   </sheetPr>
   <sheetViews>
-    <sheetView windowProtection="0" showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" showWhiteSpace="0" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" workbookViewId="0">
+    <sheetView windowProtection="0" showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showRuler="1" showOutlineSymbols="1" defaultGridColor="1" showWhiteSpace="1" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="0" zoomScaleSheetLayoutView="0" zoomScalePageLayoutView="0" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
     </sheetView>
   </sheetViews>
